--- a/2DES/3-bcd/aula2/exerc aula 2/tabela.xlsx
+++ b/2DES/3-bcd/aula2/exerc aula 2/tabela.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44BE5971-CFCC-4D70-BB0A-834188058A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\senai2023\senai2024\2DES\3-bcd\aula2\exerc aula 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -201,12 +205,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,9 +323,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -333,9 +334,6 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,6 +351,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -673,14 +677,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15:W19"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="4.7109375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
@@ -706,7 +710,7 @@
     <col min="24" max="24" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:24" ht="21">
+    <row r="3" spans="3:24" ht="21" x14ac:dyDescent="0.35">
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6"/>
@@ -717,16 +721,16 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="11" t="s">
+      <c r="R3" s="11"/>
+      <c r="S3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="13"/>
-    </row>
-    <row r="4" spans="3:24">
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="12"/>
+    </row>
+    <row r="4" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -736,7 +740,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="3:24" ht="15.75">
+    <row r="5" spans="3:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="8" t="s">
         <v>2</v>
@@ -761,29 +765,29 @@
         <v>8</v>
       </c>
       <c r="L5" s="3"/>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14" t="s">
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14" t="s">
+      <c r="T5" s="13"/>
+      <c r="U5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14" t="s">
+      <c r="V5" s="13"/>
+      <c r="W5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="14" t="s">
+      <c r="X5" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:24" ht="15.75">
+    <row r="6" spans="3:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -794,7 +798,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="3:24" ht="15.75">
+    <row r="7" spans="3:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="9">
         <v>1</v>
@@ -818,29 +822,29 @@
       <c r="K7" s="9">
         <v>3</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="14">
         <v>1</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15" t="s">
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="15" t="s">
+      <c r="S7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15">
+      <c r="T7" s="14"/>
+      <c r="U7" s="14">
         <v>1</v>
       </c>
-      <c r="V7" s="15"/>
-      <c r="W7" s="16">
+      <c r="V7" s="14"/>
+      <c r="W7" s="15">
         <v>5000</v>
       </c>
-      <c r="X7" s="15">
+      <c r="X7" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:24" ht="15.75">
+    <row r="8" spans="3:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="9">
         <v>2</v>
@@ -862,29 +866,29 @@
       <c r="K8" s="9">
         <v>1</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="14">
         <v>2</v>
       </c>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15" t="s">
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="15" t="s">
+      <c r="S8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15">
+      <c r="T8" s="14"/>
+      <c r="U8" s="14">
         <v>10</v>
       </c>
-      <c r="V8" s="15"/>
-      <c r="W8" s="16">
+      <c r="V8" s="14"/>
+      <c r="W8" s="15">
         <v>2500</v>
       </c>
-      <c r="X8" s="15">
+      <c r="X8" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:24" ht="15.75">
+    <row r="9" spans="3:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="9">
         <v>3</v>
@@ -908,246 +912,246 @@
       <c r="K9" s="9">
         <v>2</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="14">
         <v>3</v>
       </c>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15" t="s">
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="15" t="s">
+      <c r="S9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15">
+      <c r="T9" s="14"/>
+      <c r="U9" s="14">
         <v>8</v>
       </c>
-      <c r="V9" s="15"/>
-      <c r="W9" s="17">
+      <c r="V9" s="14"/>
+      <c r="W9" s="16">
         <v>150.6</v>
       </c>
-      <c r="X9" s="15">
+      <c r="X9" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="3:24">
+    <row r="10" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="13" spans="3:24" ht="18.75">
-      <c r="F13" s="18" t="s">
+    <row r="13" spans="3:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="R13" s="18" t="s">
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="R13" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-    </row>
-    <row r="15" spans="3:24">
-      <c r="D15" s="19" t="s">
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+    </row>
+    <row r="15" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D15" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="25" t="s">
+      <c r="I15" s="17"/>
+      <c r="J15" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="22" t="s">
+      <c r="R15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="S15" s="22" t="s">
+      <c r="S15" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="22" t="s">
+      <c r="T15" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="U15" s="22" t="s">
+      <c r="U15" s="20" t="s">
         <v>39</v>
       </c>
       <c r="V15" t="s">
         <v>23</v>
       </c>
-      <c r="W15" s="19" t="s">
+      <c r="W15" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="4:23">
-      <c r="D17" s="15">
+    <row r="17" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D17" s="14">
         <v>1</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="18">
         <v>43994</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="15">
         <v>25000</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="14">
         <v>2</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15">
+      <c r="I17" s="14"/>
+      <c r="J17" s="14">
         <v>3</v>
       </c>
       <c r="K17" s="5"/>
-      <c r="R17" s="15">
+      <c r="R17" s="14">
         <v>1</v>
       </c>
-      <c r="S17" s="15" t="s">
+      <c r="S17" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15" t="s">
+      <c r="T17" s="14"/>
+      <c r="U17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="W17" s="15">
+      <c r="W17" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="4:23">
-      <c r="D18" s="15">
+    <row r="18" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D18" s="14">
         <v>2</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="18">
         <v>43661</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="15">
         <v>5000</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="14">
         <v>3</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15">
+      <c r="I18" s="14"/>
+      <c r="J18" s="14">
         <v>1</v>
       </c>
       <c r="K18" s="5"/>
-      <c r="R18" s="15">
+      <c r="R18" s="14">
         <v>2</v>
       </c>
-      <c r="S18" s="15" t="s">
+      <c r="S18" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15" t="s">
+      <c r="T18" s="14"/>
+      <c r="U18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="W18" s="15">
+      <c r="W18" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="4:23">
-      <c r="D19" s="15">
+    <row r="19" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D19" s="14">
         <v>3</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="18">
         <v>44974</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="15">
         <v>1200</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="14">
         <v>1</v>
       </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15">
+      <c r="I19" s="14"/>
+      <c r="J19" s="14">
         <v>2</v>
       </c>
       <c r="K19" s="5"/>
-      <c r="R19" s="15">
+      <c r="R19" s="14">
         <v>3</v>
       </c>
-      <c r="S19" s="15" t="s">
+      <c r="S19" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15" t="s">
+      <c r="T19" s="14"/>
+      <c r="U19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="W19" s="15">
+      <c r="W19" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="4:23" ht="18.75">
-      <c r="L22" s="18" t="s">
+    <row r="22" spans="4:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="24"/>
-      <c r="Q22" s="24"/>
-    </row>
-    <row r="24" spans="4:23">
-      <c r="L24" s="23" t="s">
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="22"/>
+      <c r="Q22" s="22"/>
+    </row>
+    <row r="24" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="L24" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="M24" s="23" t="s">
+      <c r="M24" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="N24" s="23" t="s">
+      <c r="N24" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="4:23">
+    <row r="25" spans="4:23" x14ac:dyDescent="0.25">
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="4:23">
-      <c r="L26" s="15">
+    <row r="26" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="L26" s="14">
         <v>1</v>
       </c>
-      <c r="M26" s="15" t="s">
+      <c r="M26" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="N26" s="15" t="s">
+      <c r="N26" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="4:23">
-      <c r="L27" s="15">
+    <row r="27" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="L27" s="14">
         <v>2</v>
       </c>
-      <c r="M27" s="15" t="s">
+      <c r="M27" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="N27" s="15" t="s">
+      <c r="N27" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="4:23">
-      <c r="L28" s="15">
+    <row r="28" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="L28" s="14">
         <v>3</v>
       </c>
-      <c r="M28" s="15" t="s">
+      <c r="M28" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="N28" s="15" t="s">
+      <c r="N28" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1159,5 +1163,6 @@
     <mergeCell ref="S3:U3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>